--- a/assets/fileData/task.xlsx
+++ b/assets/fileData/task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taisa\Desktop\code\work\Group11\assets\fileData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\hic\GroupWeb\assets\fileData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639D349B-B744-47C9-98C9-B4B4286F8FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6010A89D-8405-41BD-8A42-B589730FD264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{7B1D975C-68E6-48ED-BBA8-CB285625B73B}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B1D975C-68E6-48ED-BBA8-CB285625B73B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Sheet5" sheetId="12" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="13" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="14" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="15" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="16" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="29">
   <si>
     <t>Nguyễn Thành Phát</t>
   </si>
@@ -59,57 +62,12 @@
     <t>Chu Tấn Tài</t>
   </si>
   <si>
-    <t>Quản lí code chung</t>
-  </si>
-  <si>
     <t>Lên ý tưởng thiết kế</t>
   </si>
   <si>
-    <t>Phân tích các chức năng</t>
-  </si>
-  <si>
-    <t>Làm phần login</t>
-  </si>
-  <si>
-    <t>Lên khung web bằng HTML, CSS</t>
-  </si>
-  <si>
     <t>Hoàn thành</t>
   </si>
   <si>
-    <t>Thiết kế giao diện</t>
-  </si>
-  <si>
-    <t>Hoàn thành tab Requirement</t>
-  </si>
-  <si>
-    <t>Làm phần setting</t>
-  </si>
-  <si>
-    <t>Làm tab Design</t>
-  </si>
-  <si>
-    <t>Phân tích các chức năng, Hoàn thành tab Requirement</t>
-  </si>
-  <si>
-    <t>Kiểm tra tính ổn định của login và setting</t>
-  </si>
-  <si>
-    <t>Kiểm tra giao diện, hoàn thành tab Design</t>
-  </si>
-  <si>
-    <t>Kiểm tra tính ổn định và loại bỏ các chức năng không cần thiết</t>
-  </si>
-  <si>
-    <t>Nâng cấp chức năng login, register, forgot password</t>
-  </si>
-  <si>
-    <t>Lên khung web bằng HTML, CSS kết hợp thêm JavaScript một số phần</t>
-  </si>
-  <si>
-    <t>Chưa có</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -128,14 +86,59 @@
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>Tạo Github nhóm</t>
+  </si>
+  <si>
+    <t>Tạo web nhóm; trang about us, group diary</t>
+  </si>
+  <si>
+    <t>Tạo tab requirement; tab Design</t>
+  </si>
+  <si>
+    <t>Tạo tab implement; tổng hợp code của web nhóm</t>
+  </si>
+  <si>
+    <t>Làm login; register; forgot password</t>
+  </si>
+  <si>
+    <t>Làm trang  home, trang recipes</t>
+  </si>
+  <si>
+    <t>Làm trang recipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàn thiện chức năng login </t>
+  </si>
+  <si>
+    <t>Hoàn thiện trang recipes</t>
+  </si>
+  <si>
+    <t>Làm trang blog; contact us</t>
+  </si>
+  <si>
+    <t>Tổng hợp code của web project</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thiết kế, tìm ảnh, tạo trang home</t>
+  </si>
+  <si>
+    <t>Kiểm tra các chức năng</t>
+  </si>
+  <si>
+    <t>Hoàn thiện, tìm lỗi sai các chức năng</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +153,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +181,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF595959"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,11 +211,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -202,6 +262,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,40 +623,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF3899-47CA-46E2-8214-BFAD05DE6815}">
   <dimension ref="C5:H10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="9" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.15234375" customWidth="1"/>
+    <col min="6" max="6" width="28.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.3046875" customWidth="1"/>
+    <col min="8" max="9" width="10.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -584,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -604,16 +687,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H7" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -623,17 +706,15 @@
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -643,17 +724,15 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -663,14 +742,146 @@
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725167C4-2215-4F39-AFF1-4DBB79708E1F}">
+  <dimension ref="D5:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="20.84375" customWidth="1"/>
+    <col min="7" max="7" width="30.765625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>23130231</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12">
         <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>23130168</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>23130004</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D9" s="8">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>23130265</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12">
+        <v>23130280</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -683,38 +894,38 @@
   <dimension ref="D8:I13"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:I8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.3828125" customWidth="1"/>
+    <col min="6" max="6" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.84375" customWidth="1"/>
+    <col min="8" max="8" width="14.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D9" s="2">
         <v>1</v>
       </c>
@@ -725,16 +936,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D10" s="2">
         <v>2</v>
       </c>
@@ -745,16 +956,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D11" s="2">
         <v>3</v>
       </c>
@@ -764,17 +975,15 @@
       <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D12" s="2">
         <v>4</v>
       </c>
@@ -784,17 +993,15 @@
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D13" s="2">
         <v>5</v>
       </c>
@@ -804,14 +1011,12 @@
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -824,38 +1029,38 @@
   <dimension ref="E5:J10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:J5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" customWidth="1"/>
+    <col min="7" max="7" width="25.15234375" customWidth="1"/>
+    <col min="8" max="8" width="47.3828125" customWidth="1"/>
+    <col min="9" max="9" width="15.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E6" s="2">
         <v>1</v>
       </c>
@@ -866,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E7" s="2">
         <v>2</v>
       </c>
@@ -886,16 +1091,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J7" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E8" s="2">
         <v>3</v>
       </c>
@@ -905,17 +1110,15 @@
       <c r="G8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>10</v>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="J8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E9" s="2">
         <v>4</v>
       </c>
@@ -925,17 +1128,15 @@
       <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>10</v>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="J9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E10" s="2">
         <v>5</v>
       </c>
@@ -945,14 +1146,12 @@
       <c r="G10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>10</v>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="J10" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -965,38 +1164,38 @@
   <dimension ref="F7:K12"/>
   <sheetViews>
     <sheetView topLeftCell="D4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.15234375" customWidth="1"/>
+    <col min="8" max="8" width="26.3046875" customWidth="1"/>
+    <col min="9" max="9" width="62.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -1007,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K8" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F9" s="2">
         <v>2</v>
       </c>
@@ -1027,16 +1226,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F10" s="2">
         <v>3</v>
       </c>
@@ -1046,17 +1245,15 @@
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>10</v>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F11" s="2">
         <v>4</v>
       </c>
@@ -1066,17 +1263,15 @@
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>10</v>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1086,14 +1281,12 @@
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>10</v>
+      <c r="I12" s="1"/>
+      <c r="J12" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K12" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1105,39 +1298,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2298D4F-68E2-4123-9299-CCD6F4AB9F6D}">
   <dimension ref="F7:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J12"/>
+    <sheetView topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.69140625" customWidth="1"/>
+    <col min="8" max="8" width="25.3828125" customWidth="1"/>
+    <col min="9" max="9" width="31.3046875" customWidth="1"/>
+    <col min="10" max="10" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -1148,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F9" s="2">
         <v>2</v>
       </c>
@@ -1171,13 +1364,13 @@
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F10" s="2">
         <v>3</v>
       </c>
@@ -1187,17 +1380,15 @@
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>28</v>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F11" s="2">
         <v>4</v>
       </c>
@@ -1207,17 +1398,15 @@
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1227,11 +1416,9 @@
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
+      <c r="I12" s="1"/>
+      <c r="J12" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1247,38 +1434,38 @@
   <dimension ref="F7:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" customWidth="1"/>
+    <col min="8" max="8" width="24.53515625" customWidth="1"/>
+    <col min="9" max="9" width="31.3046875" customWidth="1"/>
+    <col min="10" max="10" width="16.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -1289,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F9" s="2">
         <v>2</v>
       </c>
@@ -1309,16 +1496,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F10" s="2">
         <v>3</v>
       </c>
@@ -1328,17 +1515,15 @@
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>28</v>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F11" s="2">
         <v>4</v>
       </c>
@@ -1348,17 +1533,15 @@
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1368,11 +1551,9 @@
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
+      <c r="I12" s="1"/>
+      <c r="J12" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1388,38 +1569,38 @@
   <dimension ref="F7:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.3828125" customWidth="1"/>
+    <col min="9" max="9" width="31.84375" customWidth="1"/>
+    <col min="10" max="10" width="16.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -1430,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F9" s="2">
         <v>2</v>
       </c>
@@ -1450,16 +1631,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F10" s="2">
         <v>3</v>
       </c>
@@ -1469,17 +1650,15 @@
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>28</v>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F11" s="2">
         <v>4</v>
       </c>
@@ -1489,17 +1668,15 @@
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:11" x14ac:dyDescent="0.4">
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1509,13 +1686,281 @@
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
+      <c r="I12" s="1"/>
+      <c r="J12" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953EDCA3-02BB-456E-BE04-758B2DF00D45}">
+  <dimension ref="C6:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="16.921875" customWidth="1"/>
+    <col min="4" max="4" width="16.23046875" customWidth="1"/>
+    <col min="5" max="5" width="20.69140625" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="8" width="20.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>23130231</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23130168</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>23130004</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>23130265</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>23130280</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F786E6B6-B648-42A9-ACC1-8B01CADBD76F}">
+  <dimension ref="E5:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="20.69140625" customWidth="1"/>
+    <col min="8" max="8" width="35.69140625" customWidth="1"/>
+    <col min="9" max="9" width="20.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>23130231</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>23130168</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12">
+        <v>23130004</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E9" s="8">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>23130265</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E10" s="8">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>23130280</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="12">
         <v>0</v>
       </c>
     </row>

--- a/assets/fileData/task.xlsx
+++ b/assets/fileData/task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\hic\GroupWeb\assets\fileData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taisa\Desktop\code\work\Group11\assets\fileData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6010A89D-8405-41BD-8A42-B589730FD264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C606F1-AD3E-4C07-B228-58860CD1AC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B1D975C-68E6-48ED-BBA8-CB285625B73B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="9" xr2:uid="{7B1D975C-68E6-48ED-BBA8-CB285625B73B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="30">
   <si>
     <t>Nguyễn Thành Phát</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Kiểm tra lại project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -623,20 +626,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF3899-47CA-46E2-8214-BFAD05DE6815}">
   <dimension ref="C5:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="22.15234375" customWidth="1"/>
-    <col min="6" max="6" width="28.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.3046875" customWidth="1"/>
-    <col min="8" max="9" width="10.3828125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
@@ -656,7 +659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -676,7 +679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -696,7 +699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -706,7 +709,9 @@
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
@@ -714,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -724,7 +729,9 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
@@ -732,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -742,7 +749,9 @@
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
@@ -759,18 +768,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725167C4-2215-4F39-AFF1-4DBB79708E1F}">
   <dimension ref="D5:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="20.84375" customWidth="1"/>
-    <col min="7" max="7" width="30.765625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
@@ -790,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D6" s="8">
         <v>1</v>
       </c>
@@ -810,7 +819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D7" s="8">
         <v>2</v>
       </c>
@@ -830,7 +839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D8" s="8">
         <v>3</v>
       </c>
@@ -840,7 +849,9 @@
       <c r="F8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H8" s="12" t="s">
         <v>13</v>
       </c>
@@ -848,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D9" s="8">
         <v>4</v>
       </c>
@@ -858,7 +869,9 @@
       <c r="F9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" s="12" t="s">
         <v>13</v>
       </c>
@@ -866,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D10" s="8">
         <v>5</v>
       </c>
@@ -876,7 +889,9 @@
       <c r="F10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="12" t="s">
         <v>13</v>
       </c>
@@ -894,18 +909,18 @@
   <dimension ref="D8:I13"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G11" sqref="G11:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.3828125" customWidth="1"/>
-    <col min="6" max="6" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.84375" customWidth="1"/>
-    <col min="8" max="8" width="14.765625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
@@ -925,7 +940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <v>1</v>
       </c>
@@ -945,7 +960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <v>2</v>
       </c>
@@ -965,7 +980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <v>3</v>
       </c>
@@ -975,7 +990,9 @@
       <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
@@ -983,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <v>4</v>
       </c>
@@ -993,7 +1010,9 @@
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1001,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <v>5</v>
       </c>
@@ -1011,7 +1030,9 @@
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1029,18 +1050,18 @@
   <dimension ref="E5:J10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H8" sqref="H8:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.3828125" customWidth="1"/>
-    <col min="7" max="7" width="25.15234375" customWidth="1"/>
-    <col min="8" max="8" width="47.3828125" customWidth="1"/>
-    <col min="9" max="9" width="15.07421875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>1</v>
       </c>
@@ -1080,7 +1101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
         <v>2</v>
       </c>
@@ -1100,7 +1121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <v>3</v>
       </c>
@@ -1110,7 +1131,9 @@
       <c r="G8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <v>4</v>
       </c>
@@ -1128,7 +1151,9 @@
       <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <v>5</v>
       </c>
@@ -1146,7 +1171,9 @@
       <c r="G10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1164,18 +1191,18 @@
   <dimension ref="F7:K12"/>
   <sheetViews>
     <sheetView topLeftCell="D4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I10" sqref="I10:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.15234375" customWidth="1"/>
-    <col min="8" max="8" width="26.3046875" customWidth="1"/>
-    <col min="9" max="9" width="62.15234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.69140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -1215,7 +1242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F9" s="2">
         <v>2</v>
       </c>
@@ -1235,7 +1262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F10" s="2">
         <v>3</v>
       </c>
@@ -1245,7 +1272,9 @@
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>4</v>
       </c>
@@ -1263,7 +1292,9 @@
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1281,7 +1312,9 @@
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1299,18 +1332,18 @@
   <dimension ref="F7:K12"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I10" sqref="I10:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.69140625" customWidth="1"/>
-    <col min="8" max="8" width="25.3828125" customWidth="1"/>
-    <col min="9" max="9" width="31.3046875" customWidth="1"/>
-    <col min="10" max="10" width="15.84375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -1350,7 +1383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F9" s="2">
         <v>2</v>
       </c>
@@ -1370,7 +1403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F10" s="2">
         <v>3</v>
       </c>
@@ -1380,7 +1413,9 @@
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1388,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>4</v>
       </c>
@@ -1398,7 +1433,9 @@
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1416,7 +1453,9 @@
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1434,18 +1473,18 @@
   <dimension ref="F7:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I10" sqref="I10:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.84375" customWidth="1"/>
-    <col min="8" max="8" width="24.53515625" customWidth="1"/>
-    <col min="9" max="9" width="31.3046875" customWidth="1"/>
-    <col min="10" max="10" width="16.3828125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1465,7 +1504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -1485,7 +1524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F9" s="2">
         <v>2</v>
       </c>
@@ -1505,7 +1544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F10" s="2">
         <v>3</v>
       </c>
@@ -1515,7 +1554,9 @@
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1523,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>4</v>
       </c>
@@ -1533,7 +1574,9 @@
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1541,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1551,7 +1594,9 @@
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1569,18 +1614,18 @@
   <dimension ref="F7:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I10" sqref="I10:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="24.3828125" customWidth="1"/>
-    <col min="9" max="9" width="31.84375" customWidth="1"/>
-    <col min="10" max="10" width="16.3046875" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1600,7 +1645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F8" s="2">
         <v>1</v>
       </c>
@@ -1620,7 +1665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F9" s="2">
         <v>2</v>
       </c>
@@ -1640,7 +1685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F10" s="2">
         <v>3</v>
       </c>
@@ -1650,7 +1695,9 @@
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1658,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>4</v>
       </c>
@@ -1668,7 +1715,9 @@
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1676,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F12" s="2">
         <v>5</v>
       </c>
@@ -1686,7 +1735,9 @@
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1704,19 +1755,19 @@
   <dimension ref="C6:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.921875" customWidth="1"/>
-    <col min="4" max="4" width="16.23046875" customWidth="1"/>
-    <col min="5" max="5" width="20.69140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="8" width="20.69140625" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1736,7 +1787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -1756,7 +1807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>2</v>
       </c>
@@ -1776,7 +1827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>3</v>
       </c>
@@ -1786,7 +1837,9 @@
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1794,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>4</v>
       </c>
@@ -1804,7 +1857,9 @@
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1812,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <v>5</v>
       </c>
@@ -1822,7 +1877,9 @@
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1840,17 +1897,17 @@
   <dimension ref="E5:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H8" sqref="H8:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="20.69140625" customWidth="1"/>
-    <col min="8" max="8" width="35.69140625" customWidth="1"/>
-    <col min="9" max="9" width="20.69140625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1870,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6" s="8">
         <v>1</v>
       </c>
@@ -1890,7 +1947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7" s="8">
         <v>2</v>
       </c>
@@ -1910,7 +1967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8" s="8">
         <v>3</v>
       </c>
@@ -1920,7 +1977,9 @@
       <c r="G8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" s="12" t="s">
         <v>13</v>
       </c>
@@ -1928,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>4</v>
       </c>
@@ -1938,7 +1997,9 @@
       <c r="G9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I9" s="12" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" s="8">
         <v>5</v>
       </c>
@@ -1956,7 +2017,9 @@
       <c r="G10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I10" s="12" t="s">
         <v>13</v>
       </c>
